--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABF/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABF/10/seed5/result_data_RandomForest.xlsx
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.17859999999999</v>
+        <v>12.0491</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>11.65239999999999</v>
+        <v>11.9606</v>
       </c>
     </row>
     <row r="8">
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.956200000000003</v>
+        <v>4.947300000000003</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.76170000000002</v>
+        <v>-22.75470000000001</v>
       </c>
       <c r="B12" t="n">
-        <v>6.0043</v>
+        <v>5.868300000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>8.860800000000005</v>
+        <v>8.829700000000004</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.2497</v>
+        <v>12.98519999999999</v>
       </c>
     </row>
     <row r="20">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.71129999999998</v>
+        <v>12.7924</v>
       </c>
     </row>
     <row r="22">
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>4.915500000000005</v>
+        <v>4.638000000000008</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -848,7 +848,7 @@
         <v>-9.24</v>
       </c>
       <c r="E24" t="n">
-        <v>12.29939999999999</v>
+        <v>12.41159999999999</v>
       </c>
     </row>
     <row r="25">
